--- a/biology/Botanique/James_Bougault/James_Bougault.xlsx
+++ b/biology/Botanique/James_Bougault/James_Bougault.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 'James Bougault' est un cultivar de rosier obtenu en 1887 par le rosiériste français Renault.
@@ -512,10 +524,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce rosier hybride remontant présente de moyennes à grandes fleurs blanches globuleuses aux délicates nuances rose pâle, devenant de plus en plus blanches au fur et à mesure. Elles sont doubles et pleines (17-25 pétales[1]). Elles sont très parfumées[2] et fleurissent tout au long de la saison [3].
-Son buisson s'élève à 120 cm pour 90 cm d'envergure[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce rosier hybride remontant présente de moyennes à grandes fleurs blanches globuleuses aux délicates nuances rose pâle, devenant de plus en plus blanches au fur et à mesure. Elles sont doubles et pleines (17-25 pétales). Elles sont très parfumées et fleurissent tout au long de la saison .
+Son buisson s'élève à 120 cm pour 90 cm d'envergure.
 Sa zone de rusticité est de 6b à 9b ; il résiste donc aux hivers froids.
 La variété 'James Bougault' est un sport du rosier 'Auguste Mie' (Laffay, 1851). On peut l'admirer à la roseraie du Val-de-Marne à L'Haÿ-les-Roses et en Allemagne à l'Europa-Rosarium de Sangerhausen.
 </t>
